--- a/downloaded_files/CMPS103_Tutorial-35658.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35658.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,15 +139,6 @@
   </x:si>
   <x:si>
     <x:t>Shaza Ahmed Ahmed Abdelrazekِ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن ثامر محمد الذهبي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman thamer mohamed elzahaby</x:t>
   </x:si>
   <x:si>
     <x:t>1240081</x:t>
@@ -461,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1236,7 +1227,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6734728356</x:v>
+        <x:v>45912.63106875</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1268,7 +1259,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.63106875</x:v>
+        <x:v>45907.6741710648</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1300,7 +1291,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6741710648</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1332,7 +1323,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45907.6685246181</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1364,7 +1355,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6685246181</x:v>
+        <x:v>45907.4141627662</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1396,7 +1387,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4141627662</x:v>
+        <x:v>45906.6650795139</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1428,7 +1419,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6650795139</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1460,7 +1451,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1492,7 +1483,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1524,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45914.0930256134</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.0930256134</x:v>
+        <x:v>45909.4153630787</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4153630787</x:v>
+        <x:v>45907.6665222569</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6665222569</x:v>
+        <x:v>45914.0893229167</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.0893229167</x:v>
+        <x:v>45912.6312075231</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.6312075231</x:v>
+        <x:v>45906.6676064468</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6676064468</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.5021883102</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.5021883102</x:v>
+        <x:v>45912.6311479977</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.6311479977</x:v>
+        <x:v>45907.6648212963</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6648212963</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45909.4350654282</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1899,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.4350654282</x:v>
+        <x:v>45906.6669528935</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1925,38 +1916,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45906.6669528935</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Tutorial-35658.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35658.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>Ahmed Marwan Kamel Abd Alaziz</x:t>
   </x:si>
   <x:si>
+    <x:t>1240005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد خالد سعد محمود سلام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed khaled saad mahmoud</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240009</x:t>
   </x:si>
   <x:si>
@@ -105,15 +114,6 @@
     <x:t>Jana Tarek Abdellatif Mohamed Khatib</x:t>
   </x:si>
   <x:si>
-    <x:t>1210214</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حازم محمد عبد السلام لطفي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hazem mohamed abdelsalam lotfy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240305</x:t>
   </x:si>
   <x:si>
@@ -186,15 +186,6 @@
     <x:t>Abdelrhman Mohamed abdelhamid farghaly</x:t>
   </x:si>
   <x:si>
-    <x:t>1210251</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن وائل عبدالرازق السيد موافى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman wael abdelrazek el seid</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210060</x:t>
   </x:si>
   <x:si>
@@ -267,15 +258,6 @@
     <x:t>Mohamed Hazem Ali Attia</x:t>
   </x:si>
   <x:si>
-    <x:t>1210290</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عمرو هاني حسين سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed amr hany hussein sayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240147</x:t>
   </x:si>
   <x:si>
@@ -294,6 +276,15 @@
     <x:t>Mariam Abdelnaby Elsayed Abdelgawad</x:t>
   </x:si>
   <x:si>
+    <x:t>1240155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>منه الله جمال على محمد حمدان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mennatallah Gamal Ali Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240156</x:t>
   </x:si>
   <x:si>
@@ -319,6 +310,24 @@
   </x:si>
   <x:si>
     <x:t>Naira Mohamed Salah Eldin fathallah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ياسين إسلام صلاح عبد الحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yassin Islam Salah Abdelhameed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد السيد احمد الشلقاني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef ahmed elsayed ahmed metwaley</x:t>
   </x:si>
   <x:si>
     <x:t>1230329</x:t>
@@ -452,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -875,7 +884,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6730760764</x:v>
+        <x:v>45927.4146202894</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -907,7 +916,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45912.6430545139</x:v>
+        <x:v>45907.6730760764</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -939,7 +948,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4212568287</x:v>
+        <x:v>45912.6430545139</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -971,7 +980,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.0921487268</x:v>
+        <x:v>45907.4212568287</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1003,7 +1012,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.6599895486</x:v>
+        <x:v>45914.0921487268</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1035,7 +1044,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6750236458</x:v>
+        <x:v>45909.6599895486</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1067,7 +1076,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6647150463</x:v>
+        <x:v>45907.6750236458</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1099,7 +1108,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6652719907</x:v>
+        <x:v>45907.6647150463</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1387,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6650795139</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45914.0930256134</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.0930256134</x:v>
+        <x:v>45909.4153630787</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4153630787</x:v>
+        <x:v>45907.6665222569</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6665222569</x:v>
+        <x:v>45914.0893229167</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.0893229167</x:v>
+        <x:v>45912.6312075231</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.6312075231</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6676064468</x:v>
+        <x:v>45907.5021883102</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45927.4267826736</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.5021883102</x:v>
+        <x:v>45912.6311479977</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.6311479977</x:v>
+        <x:v>45907.6648212963</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6648212963</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45927.6638493403</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4350654282</x:v>
+        <x:v>45927.4874640857</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1899,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6669528935</x:v>
+        <x:v>45909.4350654282</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1916,6 +1925,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45906.6669528935</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Tutorial-35658.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35658.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,15 +69,6 @@
     <x:t>Ahmed Mohamed Talaat Mansour</x:t>
   </x:si>
   <x:si>
-    <x:t>1220094</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد عزت الحديدى عبده</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed ezzat</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240024</x:t>
   </x:si>
   <x:si>
@@ -312,15 +303,6 @@
     <x:t>Naira Mohamed Salah Eldin fathallah</x:t>
   </x:si>
   <x:si>
-    <x:t>1220153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ياسين إسلام صلاح عبد الحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yassin Islam Salah Abdelhameed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240167</x:t>
   </x:si>
   <x:si>
@@ -328,24 +310,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef ahmed elsayed ahmed metwaley</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230329</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف اسلام حجازى محمد سلامة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Islam Hegazy Mohamed Salama</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210338</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف سيد بدير احمد امين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef sayed bedier ahmed amin</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -461,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -980,7 +944,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4212568287</x:v>
+        <x:v>45914.0921487268</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1012,7 +976,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.0921487268</x:v>
+        <x:v>45909.6599895486</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1044,7 +1008,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.6599895486</x:v>
+        <x:v>45907.6750236458</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1076,7 +1040,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6750236458</x:v>
+        <x:v>45907.6647150463</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1108,7 +1072,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6647150463</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1140,7 +1104,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45912.6313366551</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1172,7 +1136,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.6313366551</x:v>
+        <x:v>45914.0901453704</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1204,7 +1168,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.0901453704</x:v>
+        <x:v>45912.63106875</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1236,7 +1200,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.63106875</x:v>
+        <x:v>45907.6741710648</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1268,7 +1232,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6741710648</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1300,7 +1264,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45907.6685246181</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1332,7 +1296,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6685246181</x:v>
+        <x:v>45907.4141627662</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1364,7 +1328,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4141627662</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1396,7 +1360,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1428,7 +1392,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1460,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45914.0930256134</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1492,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.0930256134</x:v>
+        <x:v>45909.4153630787</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1524,7 +1488,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4153630787</x:v>
+        <x:v>45907.6665222569</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1520,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6665222569</x:v>
+        <x:v>45914.0893229167</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1552,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.0893229167</x:v>
+        <x:v>45912.6312075231</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1584,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.6312075231</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1616,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.5021883102</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.5021883102</x:v>
+        <x:v>45927.4267826736</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1680,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4267826736</x:v>
+        <x:v>45912.6311479977</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1712,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.6311479977</x:v>
+        <x:v>45907.6648212963</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1744,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6648212963</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1776,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45927.4874640857</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1830,134 +1794,6 @@
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
     </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45927.6638493403</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45927.4874640857</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45909.4350654282</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45906.6669528935</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1970,9 +1806,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Data Structures and Algorithms (CMPS103) Location : [3706]3706-45-الجيزة الرئيسي Time : Sunday(13:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS103_Tutorial-35658.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35658.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -213,6 +213,15 @@
     <x:t>Omar Mohamed Mostafa Mohamed El Faham</x:t>
   </x:si>
   <x:si>
+    <x:t>1230077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر وليد الطاهر علي ابوشحاته</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Walid El Taher Ali</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240346</x:t>
   </x:si>
   <x:si>
@@ -247,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Hazem Ali Attia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد صبرى حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Sabry Hassan Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240147</x:t>
@@ -425,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1456,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4153630787</x:v>
+        <x:v>45928.4112412847</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6665222569</x:v>
+        <x:v>45909.4153630787</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.0893229167</x:v>
+        <x:v>45907.6665222569</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.6312075231</x:v>
+        <x:v>45914.0893229167</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45912.6312075231</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.5021883102</x:v>
+        <x:v>45928.651734838</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4267826736</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.6311479977</x:v>
+        <x:v>45907.5021883102</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6648212963</x:v>
+        <x:v>45927.4267826736</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1744,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45912.6311479977</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1776,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.4874640857</x:v>
+        <x:v>45907.6648212963</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1793,6 +1811,70 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45906.6645776968</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45927.4874640857</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Tutorial-35658.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35658.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -177,6 +177,15 @@
     <x:t>Abdelrhman Mohamed abdelhamid farghaly</x:t>
   </x:si>
   <x:si>
+    <x:t>1230068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علي تامر علي عبدالفتاح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Tamer Ali Abdel Fattah</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210060</x:t>
   </x:si>
   <x:si>
@@ -247,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>Lobna Ibrahim Ahmed Ibrahim Mohamed Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مارى مرقص جورج ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mary Morcos George Ibrahem</x:t>
   </x:si>
   <x:si>
     <x:t>1240135</x:t>
@@ -443,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1346,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45928.9027793171</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1378,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1410,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1442,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.0930256134</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1474,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45928.4112412847</x:v>
+        <x:v>45914.0930256134</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1506,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4153630787</x:v>
+        <x:v>45928.4112412847</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1538,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6665222569</x:v>
+        <x:v>45909.4153630787</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1570,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.0893229167</x:v>
+        <x:v>45907.6665222569</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1602,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.6312075231</x:v>
+        <x:v>45914.0893229167</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1634,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45928.651734838</x:v>
+        <x:v>45929.0673479167</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1666,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45912.6312075231</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.5021883102</x:v>
+        <x:v>45928.651734838</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.4267826736</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.6311479977</x:v>
+        <x:v>45907.5021883102</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6648212963</x:v>
+        <x:v>45927.4267826736</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45912.6311479977</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1858,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45927.4874640857</x:v>
+        <x:v>45907.6648212963</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1876,6 +1894,70 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45906.6645776968</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45927.4874640857</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1888,6 +1970,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Data Structures and Algorithms (CMPS103) Location : [3706]3706-45-الجيزة الرئيسي Time : Sunday(13:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS103_Tutorial-35658.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35658.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -256,15 +256,6 @@
   </x:si>
   <x:si>
     <x:t>Lobna Ibrahim Ahmed Ibrahim Mohamed Ibrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مارى مرقص جورج ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mary Morcos George Ibrahem</x:t>
   </x:si>
   <x:si>
     <x:t>1240135</x:t>
@@ -461,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1652,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45929.0673479167</x:v>
+        <x:v>45912.6312075231</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.6312075231</x:v>
+        <x:v>45928.651734838</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45928.651734838</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.5021883102</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.5021883102</x:v>
+        <x:v>45927.4267826736</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.4267826736</x:v>
+        <x:v>45912.6311479977</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.6311479977</x:v>
+        <x:v>45907.6648212963</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6648212963</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1899,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45927.4874640857</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1925,38 +1916,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45927.4874640857</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Tutorial-35658.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35658.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,15 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>أحمد مروان كامل عبد العزيز محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Marwan Kamel Abd Alaziz</x:t>
   </x:si>
   <x:si>
     <x:t>1240005</x:t>
@@ -452,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -843,7 +834,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.8118073727</x:v>
+        <x:v>45927.4146202894</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -875,7 +866,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45927.4146202894</x:v>
+        <x:v>45907.6730760764</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -907,7 +898,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6730760764</x:v>
+        <x:v>45912.6430545139</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -939,7 +930,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.6430545139</x:v>
+        <x:v>45914.0921487268</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -971,7 +962,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.0921487268</x:v>
+        <x:v>45909.6599895486</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1003,7 +994,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.6599895486</x:v>
+        <x:v>45907.6750236458</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1035,7 +1026,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6750236458</x:v>
+        <x:v>45907.6647150463</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1067,7 +1058,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6647150463</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1099,7 +1090,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45912.6313366551</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1131,7 +1122,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.6313366551</x:v>
+        <x:v>45914.0901453704</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1163,7 +1154,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.0901453704</x:v>
+        <x:v>45912.63106875</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1195,7 +1186,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.63106875</x:v>
+        <x:v>45907.6741710648</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1227,7 +1218,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6741710648</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1259,7 +1250,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45907.6685246181</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1291,7 +1282,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6685246181</x:v>
+        <x:v>45907.4141627662</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1323,7 +1314,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4141627662</x:v>
+        <x:v>45928.9027793171</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1355,7 +1346,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45928.9027793171</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,7 +1378,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1410,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45914.0930256134</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.0930256134</x:v>
+        <x:v>45928.4112412847</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45928.4112412847</x:v>
+        <x:v>45909.4153630787</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4153630787</x:v>
+        <x:v>45907.6665222569</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6665222569</x:v>
+        <x:v>45914.0893229167</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.0893229167</x:v>
+        <x:v>45912.6312075231</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.6312075231</x:v>
+        <x:v>45928.651734838</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45928.651734838</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.5021883102</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.5021883102</x:v>
+        <x:v>45927.4267826736</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45927.4267826736</x:v>
+        <x:v>45912.6311479977</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.6311479977</x:v>
+        <x:v>45907.6648212963</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6648212963</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1858,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45927.4874640857</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1885,38 +1876,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45927.4874640857</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1929,9 +1888,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Data Structures and Algorithms (CMPS103) Location : [3706]3706-45-الجيزة الرئيسي Time : Sunday(13:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>
